--- a/data/trans_bre/CONS_ANTIDE-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANTIDE-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,76%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,74; 2,2</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1,19; 10,3</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 2,82</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 6,15</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-83,94; 853,01</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,37; 273,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,52; 202,58</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>387,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>559,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>303,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,51%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,16; 3,44</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 5,93</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 4,2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 5,97</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,64; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,81; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,71; 178,73</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>134,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>395,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-31,21%</t>
+          <t>36,29%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 2,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 4,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,4; 5,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 0,87</t>
+          <t>-2,41; 4,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,16; 702,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,07; 391,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,81; 2213,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,36; 171,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>32,95%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>114,43%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>579,15%</t>
+          <t>171,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,19%</t>
+          <t>109,79%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,83</t>
+          <t>-0,87; 2,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 5,76</t>
+          <t>0,66; 8,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,31; 6,03</t>
+          <t>1,23; 6,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 1,36</t>
+          <t>1,51; 14,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-70,74; 298,75</t>
+          <t>-26,71; 153,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,46; 207,93</t>
+          <t>7,65; 530,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,17; 512,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,84; 548,83</t>
+          <t>8,56; 310,05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>14,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>412,99%</t>
+          <t>26,73%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>140,18%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>427,46%</t>
+          <t>63,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>437,04%</t>
+          <t>231,4%</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 5,1</t>
+          <t>-1,41; 3,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 6,06</t>
+          <t>4,35; 11,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,73</t>
+          <t>-0,31; 6,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 3,1</t>
+          <t>7,91; 22,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,86; —</t>
+          <t>-31,03; 122,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-41,33; 175,05</t>
+          <t>58,54; 289,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,97; 10790,26</t>
+          <t>-8,88; 186,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>84,66; 565,45</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>358,0%</t>
+          <t>239,5%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>36,29%</t>
+          <t>502,43%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>72,65%</t>
+          <t>539,13%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>174,41%</t>
+          <t>48,29%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,92</t>
+          <t>1,7; 5,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 5,24</t>
+          <t>0,43; 13,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 4,05</t>
+          <t>3,35; 8,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,7</t>
+          <t>-4,88; 13,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>63,62; 1623,37</t>
+          <t>46,66; 614,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,64; 208,28</t>
+          <t>29,03; 1829,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 258,31</t>
+          <t>175,85; 1418,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,69; 630,5</t>
+          <t>-40,35; 234,49</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>18,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>145,2%</t>
+          <t>145,23%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>109,79%</t>
+          <t>35,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>64,43%</t>
+          <t>206,68%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>47,86%</t>
+          <t>290,72%</t>
         </is>
       </c>
     </row>
@@ -1268,49 +1268,49 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 5,63</t>
+          <t>1,64; 6,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 14,53</t>
+          <t>-2,32; 6,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,3; 5,52</t>
+          <t>3,07; 8,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 2,96</t>
+          <t>10,42; 27,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,28; 433,61</t>
+          <t>27,61; 358,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,49; 317,92</t>
+          <t>-21,65; 130,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,04; 150,48</t>
+          <t>70,65; 492,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 175,66</t>
+          <t>98,02; 752,12</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>14,21</t>
+          <t>4,28</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>79,65%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>231,4%</t>
+          <t>139,94%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>119,21%</t>
+          <t>157,28%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>28,32%</t>
+          <t>121,56%</t>
         </is>
       </c>
     </row>
@@ -1368,366 +1368,63 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,52; 7,7</t>
+          <t>1,2; 2,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,06; 22,21</t>
+          <t>2,31; 6,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,15; 9,8</t>
+          <t>2,42; 4,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,74</t>
+          <t>4,88; 9,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,39; 220,15</t>
+          <t>49,02; 167,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>88,03; 540,2</t>
+          <t>70,51; 295,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>56,65; 223,0</t>
+          <t>92,73; 267,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,4; 109,69</t>
+          <t>67,15; 186,5</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>5,56</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>4,5</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>7,25</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>3,87</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>487,02%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>48,29%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>305,9%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>299,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>3,5; 8,03</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-5,77; 12,92</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>2,03; 10,69</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 5,55</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>175,97; 1479,34</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-47,91; 215,45</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>68,89; 615,76</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>93,77; 684,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>6,33</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>18,32</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>3,84</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>3,92</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>212,46%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>290,72%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>62,64%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>152,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>3,55; 9,28</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>10,6; 25,93</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>0,52; 6,91</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 5,97</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>83,26; 497,57</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>100,21; 763,48</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>6,05; 158,9</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>46,84; 349,71</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,99</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>7,22</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>4,11</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>187,91%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>121,76%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>118,12%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>111,64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>3,06; 4,93</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>4,94; 9,47</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>3,13; 5,18</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 2,56</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>123,07; 286,21</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>72,4; 186,85</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>79,62; 177,17</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>70,79; 176,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_bre/CONS_ANTIDE-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANTIDE-Edad-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>46,06%</t>
+          <t>-7,61%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,2</t>
+          <t>-1,96; 1,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 10,3</t>
+          <t>1,22; 10,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 6,15</t>
+          <t>-4,94; 5,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-83,94; 853,01</t>
+          <t>-86,55; 399,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-70,52; 202,58</t>
+          <t>-71,46; 227,99</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>387,11%</t>
+          <t>871,23%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 3,44</t>
+          <t>0,4; 2,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,93</t>
+          <t>0,46; 5,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 5,97</t>
+          <t>-2,86; 5,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,64; —</t>
+          <t>-22,45; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,71; 178,73</t>
+          <t>-37,99; 182,45</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>134,38%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 2,86</t>
+          <t>-0,57; 2,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,69</t>
+          <t>-0,88; 4,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 4,96</t>
+          <t>-1,99; 4,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,16; 702,61</t>
+          <t>-46,49; 485,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,07; 391,12</t>
+          <t>-27,33; 416,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-41,36; 171,26</t>
+          <t>-38,89; 188,7</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,89</t>
+          <t>-1,37; 1,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 8,29</t>
+          <t>0,88; 8,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 14,5</t>
+          <t>1,57; 15,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,71; 153,09</t>
+          <t>-40,95; 102,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,65; 530,22</t>
+          <t>7,2; 603,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 310,05</t>
+          <t>10,16; 315,31</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,99</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>26,73%</t>
+          <t>47,07%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,11</t>
+          <t>-0,39; 3,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,35; 11,35</t>
+          <t>3,95; 11,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,91; 22,32</t>
+          <t>8,09; 22,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 122,14</t>
+          <t>-11,8; 162,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>58,54; 289,25</t>
+          <t>49,7; 303,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>84,66; 565,45</t>
+          <t>79,79; 542,45</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>239,5%</t>
+          <t>152,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,56</t>
+          <t>1,18; 5,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,43; 13,41</t>
+          <t>0,46; 13,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 13,24</t>
+          <t>-4,37; 12,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,66; 614,38</t>
+          <t>29,32; 413,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>29,03; 1829,53</t>
+          <t>39,52; 1857,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,35; 234,49</t>
+          <t>-40,38; 231,71</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>145,23%</t>
+          <t>153,86%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,3</t>
+          <t>1,49; 5,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 6,8</t>
+          <t>-1,84; 6,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,42; 27,23</t>
+          <t>10,87; 27,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,61; 358,86</t>
+          <t>33,21; 403,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 130,26</t>
+          <t>-18,51; 141,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>98,02; 752,12</t>
+          <t>87,66; 712,52</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,98</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>86,23%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,2; 2,77</t>
+          <t>1,08; 2,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,31; 6,24</t>
+          <t>2,06; 5,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1383,17 +1383,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,88; 9,64</t>
+          <t>4,78; 9,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>49,02; 167,81</t>
+          <t>46,08; 148,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>70,51; 295,12</t>
+          <t>63,4; 254,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>67,15; 186,5</t>
+          <t>65,24; 189,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_ANTIDE-Edad-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANTIDE-Edad-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,55</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-0,1</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,92</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,93%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>-7,61%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-0,93%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,76%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,04; 9,84</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-4,94; 5,71</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-2,74; 2,82</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-1,96; 1,4</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 10,73</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 2,82</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,94; 5,71</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-71,46; 227,99</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-72,37; 273,85</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>-86,55; 399,42</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-72,37; 273,85</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-71,46; 227,99</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>1,32</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>222,9%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27,51%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>303,47%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>871,23%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>559,49%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>303,47%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>27,51%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,07; 5,71</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 5,53</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 4,2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>0,4; 2,9</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 5,84</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 4,2</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 5,53</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-68,73; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-37,99; 182,45</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-37,81; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-22,45; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-37,81; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-37,99; 182,45</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,96</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,19</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,17</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,53</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>101,34%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>36,29%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>395,42%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>88,48%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>88,08%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>395,42%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>36,29%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-0,57; 4,64</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 4,84</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 5,45</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-0,57; 2,49</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,88; 4,8</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,4; 5,45</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 4,84</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-27,47; 451,57</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-38,89; 188,7</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>53,81; 2213,4</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>-46,49; 485,99</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-27,33; 416,6</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>53,81; 2213,4</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-38,89; 188,7</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7,51</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,24</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,12</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,51</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>31,61%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>109,79%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>171,79%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>9,17%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>114,43%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>171,79%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>109,79%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-1,68; 4,87</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 15,23</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 6,19</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-1,37; 1,73</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 8,71</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 6,19</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 15,23</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>-21,46; 117,22</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10,16; 315,31</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31,17; 512,66</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>-40,95; 102,31</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7,2; 603,12</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>31,17; 512,66</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>10,16; 315,31</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>8,02</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14,21</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>1,57</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,86</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,28</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>14,21</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>149,96%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>231,4%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>63,16%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>47,07%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>140,18%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>63,16%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>231,4%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>4,35; 11,63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8,09; 22,67</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,31; 6,88</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>-0,39; 3,9</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>3,95; 11,41</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 6,88</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>8,09; 22,67</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>52,81; 316,29</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>79,79; 542,45</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,88; 186,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>-11,8; 162,92</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>49,7; 303,09</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-8,88; 186,39</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>79,79; 542,45</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>12,45</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5,7</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>3,24</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,24</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5,7</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,5</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>992,84%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>48,29%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>539,13%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>152,93%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>502,43%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>539,13%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>48,29%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>9,18; 15,72</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-4,37; 12,62</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3,35; 8,25</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>1,18; 5,52</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 13,66</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>3,35; 8,25</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-4,37; 12,62</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>314,6; 3819,11</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-40,38; 231,71</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>175,85; 1418,04</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>29,32; 413,5</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>39,52; 1857,64</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>175,85; 1418,04</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-40,38; 231,71</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>2,73</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>18,32</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5,87</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>3,68</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>5,87</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>18,32</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>36,94%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>290,72%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>206,68%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>153,86%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>35,48%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>206,68%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>290,72%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-1,76; 6,89</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10,87; 27,02</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 8,76</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>1,49; 5,96</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-1,84; 6,89</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>3,07; 8,76</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>10,87; 27,02</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>-18,81; 151,62</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>87,66; 712,52</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>70,65; 492,73</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>33,21; 403,98</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-18,51; 141,12</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>70,65; 492,73</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>87,66; 712,52</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7,24</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>1,74</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>4,28</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>3,45</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>7,24</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>137,04%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>121,56%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>157,28%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>86,23%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>139,94%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>157,28%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>121,56%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>3,43; 5,89</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4,78; 9,57</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 4,63</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>1,08; 2,53</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 5,8</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 4,63</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>4,78; 9,57</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>81,59; 206,65</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>65,24; 189,69</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>92,73; 267,78</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>46,08; 148,32</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>63,4; 254,59</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>92,73; 267,78</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>65,24; 189,69</t>
         </is>
       </c>
     </row>
